--- a/Prog4Shared.xlsx
+++ b/Prog4Shared.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1949824\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17970" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,26 +167,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -627,11 +602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1244522832"/>
-        <c:axId val="1244534256"/>
+        <c:axId val="126490496"/>
+        <c:axId val="126493056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1244522832"/>
+        <c:axId val="126490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,26 +652,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -735,7 +690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244534256"/>
+        <c:crossAx val="126493056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244534256"/>
+        <c:axId val="126493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,26 +759,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -856,7 +791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244522832"/>
+        <c:crossAx val="126490496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,26 +926,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1304,11 +1219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1180865904"/>
-        <c:axId val="1180870800"/>
+        <c:axId val="126544512"/>
+        <c:axId val="126358272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1180865904"/>
+        <c:axId val="126544512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,58 +1232,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Square Dimension of Matrix</a:t>
+                  <a:t>Matrix Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1407,7 +1285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180870800"/>
+        <c:crossAx val="126358272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1180870800"/>
+        <c:axId val="126358272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,21 +1316,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1463,33 +1331,6 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1522,7 +1363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180865904"/>
+        <c:crossAx val="126544512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,6 +1375,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1620,26 +1466,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1873,11 +1699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1244532624"/>
-        <c:axId val="1244530448"/>
+        <c:axId val="126391808"/>
+        <c:axId val="126394368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1244532624"/>
+        <c:axId val="126391808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,58 +1712,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Square Dimension of Matrix</a:t>
+                  <a:t>Matrix Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1976,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244530448"/>
+        <c:crossAx val="126394368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1984,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244530448"/>
+        <c:axId val="126394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,21 +1796,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -2032,33 +1811,6 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2091,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244532624"/>
+        <c:crossAx val="126391808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,6 +1855,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4119,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4129,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,7 +4319,7 @@
         <v>7.3180000000000005</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J29" si="3">I5/I12</f>
+        <f t="shared" ref="J12:J15" si="3">I5/I12</f>
         <v>1.3435364853785186</v>
       </c>
       <c r="K12" s="3">
